--- a/src/test/java/com/inetbanking/testData/TestData.xlsx
+++ b/src/test/java/com/inetbanking/testData/TestData.xlsx
@@ -21,16 +21,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>mngr350471</t>
   </si>
   <si>
-    <t>password</t>
+    <t>rUpYzEs</t>
   </si>
   <si>
-    <t>mngr329169</t>
+    <t>Username</t>
   </si>
   <si>
-    <t>devYsYg</t>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -46,14 +46,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,18 +61,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -104,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -422,9 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -432,44 +424,44 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
